--- a/Results/Public data/ipcc_ar6_data_covid.xlsx
+++ b/Results/Public data/ipcc_ar6_data_covid.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-14 13:53:04</t>
+    <t xml:space="preserve">2021-10-15 15:01:16</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>

--- a/Results/Public data/ipcc_ar6_data_covid.xlsx
+++ b/Results/Public data/ipcc_ar6_data_covid.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-15 15:01:16</t>
+    <t xml:space="preserve">2021-10-18 16:23:09</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>

--- a/Results/Public data/ipcc_ar6_data_covid.xlsx
+++ b/Results/Public data/ipcc_ar6_data_covid.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-18 16:23:09</t>
+    <t xml:space="preserve">2021-10-28 16:16:29</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -616,7 +616,7 @@
         <v>0.14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="D2" t="n">
         <v>0.14</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-54.51</v>
+        <v>0.31</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -642,7 +642,7 @@
         <v>2.79</v>
       </c>
       <c r="C3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="n">
         <v>2.79</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.19</v>
+        <v>-3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v>15.82</v>
       </c>
       <c r="C4" t="n">
-        <v>16.11</v>
+        <v>15.98</v>
       </c>
       <c r="D4" t="n">
         <v>15.27</v>
@@ -680,10 +680,10 @@
         <v>-0.55</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.2</v>
+        <v>-4.48</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.84</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +694,7 @@
         <v>10.02</v>
       </c>
       <c r="C5" t="n">
-        <v>10.41</v>
+        <v>10.32</v>
       </c>
       <c r="D5" t="n">
         <v>10.19</v>
@@ -706,10 +706,10 @@
         <v>0.17</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.1</v>
+        <v>-1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.22</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="6">
@@ -732,7 +732,7 @@
         <v>-0.74</v>
       </c>
       <c r="G6" t="n">
-        <v>-11.57</v>
+        <v>-11.55</v>
       </c>
       <c r="H6" t="n">
         <v>-0.99</v>
@@ -818,7 +818,7 @@
         <v>0.85</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E2" t="n">
         <v>0.85</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.77</v>
+        <v>-3.72</v>
       </c>
       <c r="I2" t="n">
         <v>-0.03</v>
@@ -847,7 +847,7 @@
         <v>1.94</v>
       </c>
       <c r="D3" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="E3" t="n">
         <v>1.94</v>
@@ -859,10 +859,10 @@
         <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.37</v>
+        <v>-3.83</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>0.13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -888,10 +888,10 @@
         <v>0.02</v>
       </c>
       <c r="H4" t="n">
-        <v>-20.28</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +934,7 @@
         <v>0.31</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="E6" t="n">
         <v>0.31</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-22.1</v>
+        <v>-3.13</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
@@ -975,10 +975,10 @@
         <v>-0.03</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.16</v>
+        <v>-3.63</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8">
@@ -1004,7 +1004,7 @@
         <v>-0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.47</v>
+        <v>-6.46</v>
       </c>
       <c r="I8" t="n">
         <v>-0.04</v>
@@ -1062,7 +1062,7 @@
         <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="I10" t="n">
         <v>-0.01</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.36</v>
+        <v>-2.32</v>
       </c>
       <c r="I11" t="n">
         <v>-0.07</v>
@@ -1108,7 +1108,7 @@
         <v>3.3</v>
       </c>
       <c r="D12" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="E12" t="n">
         <v>3.29</v>
@@ -1120,7 +1120,7 @@
         <v>-0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.94</v>
+        <v>-2.91</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.4</v>
+        <v>-6.38</v>
       </c>
       <c r="I14" t="n">
         <v>-0.01</v>
@@ -1207,7 +1207,7 @@
         <v>-0.24</v>
       </c>
       <c r="H15" t="n">
-        <v>-45.27</v>
+        <v>-45.26</v>
       </c>
       <c r="I15" t="n">
         <v>-0.28</v>
@@ -1236,7 +1236,7 @@
         <v>0.06</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.16</v>
+        <v>-1.15</v>
       </c>
       <c r="I16" t="n">
         <v>-0.01</v>
@@ -1265,7 +1265,7 @@
         <v>-0.03</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.43</v>
+        <v>-7.4</v>
       </c>
       <c r="I17" t="n">
         <v>-0.04</v>
@@ -1294,7 +1294,7 @@
         <v>-0.01</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.59</v>
+        <v>-9.55</v>
       </c>
       <c r="I18" t="n">
         <v>-0.01</v>
@@ -1323,7 +1323,7 @@
         <v>-0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>-10.12</v>
+        <v>-10.1</v>
       </c>
       <c r="I19" t="n">
         <v>-0.61</v>
@@ -1389,7 +1389,7 @@
         <v>1.43</v>
       </c>
       <c r="E2" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F2" t="n">
         <v>1.39</v>
@@ -1401,10 +1401,10 @@
         <v>-0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.95</v>
+        <v>-6.79</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3">
@@ -1421,7 +1421,7 @@
         <v>12.07</v>
       </c>
       <c r="E3" t="n">
-        <v>12.64</v>
+        <v>12.57</v>
       </c>
       <c r="F3" t="n">
         <v>12.69</v>
@@ -1433,10 +1433,10 @@
         <v>0.61</v>
       </c>
       <c r="I3" t="n">
-        <v>0.38</v>
+        <v>0.96</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -1453,7 +1453,7 @@
         <v>1.64</v>
       </c>
       <c r="E4" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="F4" t="n">
         <v>1.73</v>
@@ -1465,10 +1465,10 @@
         <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.89</v>
+        <v>-6.09</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.15</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="5">
@@ -1485,7 +1485,7 @@
         <v>2.75</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="F5" t="n">
         <v>2.79</v>
@@ -1497,10 +1497,10 @@
         <v>0.04</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.86</v>
+        <v>-5.32</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.21</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="6">
@@ -1517,7 +1517,7 @@
         <v>1.65</v>
       </c>
       <c r="E6" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="F6" t="n">
         <v>1.48</v>
@@ -1529,10 +1529,10 @@
         <v>-0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.36</v>
+        <v>-6.87</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="7">
@@ -1549,7 +1549,7 @@
         <v>4.18</v>
       </c>
       <c r="E7" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="F7" t="n">
         <v>3.64</v>
@@ -1561,10 +1561,10 @@
         <v>-0.54</v>
       </c>
       <c r="I7" t="n">
-        <v>-10.16</v>
+        <v>-9.51</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.41</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="8">
@@ -1581,7 +1581,7 @@
         <v>5.68</v>
       </c>
       <c r="E8" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F8" t="n">
         <v>5.08</v>
@@ -1593,10 +1593,10 @@
         <v>-0.6</v>
       </c>
       <c r="I8" t="n">
-        <v>-10.33</v>
+        <v>-9.83</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.59</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="9">
@@ -1613,7 +1613,7 @@
         <v>2.43</v>
       </c>
       <c r="E9" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="F9" t="n">
         <v>2.34</v>
@@ -1625,10 +1625,10 @@
         <v>-0.09</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.23</v>
+        <v>-5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
@@ -1657,7 +1657,7 @@
         <v>-0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>-45.27</v>
+        <v>-45.26</v>
       </c>
       <c r="J10" t="n">
         <v>-0.28</v>
@@ -1689,7 +1689,7 @@
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.23</v>
+        <v>-1.15</v>
       </c>
       <c r="J11" t="n">
         <v>-0.01</v>
@@ -1709,7 +1709,7 @@
         <v>1.83</v>
       </c>
       <c r="E12" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="F12" t="n">
         <v>1.58</v>
@@ -1721,10 +1721,10 @@
         <v>-0.24</v>
       </c>
       <c r="I12" t="n">
-        <v>-13.09</v>
+        <v>-10.52</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="13">
@@ -1741,7 +1741,7 @@
         <v>2.14</v>
       </c>
       <c r="E13" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="F13" t="n">
         <v>2.14</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.65</v>
+        <v>-2.36</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Public data/ipcc_ar6_data_covid.xlsx
+++ b/Results/Public data/ipcc_ar6_data_covid.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-28 16:16:29</t>
+    <t xml:space="preserve">2021-11-02 16:03:37</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -537,10 +537,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -575,10 +575,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -771,10 +771,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1336,10 +1336,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
